--- a/data/E5_Tableau_de_synthèse_Alexandre_FA.xlsx
+++ b/data/E5_Tableau_de_synthèse_Alexandre_FA.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afaubladier\Desktop\Alexandre\Mon-Portfolio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49341CE-C739-4A29-A9D2-2DA863D14368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F2DEE9-08D2-47E7-83F9-4C64D5293DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E5'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E5'!$A$1:$H$28</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>▢ SLAM</t>
-  </si>
-  <si>
-    <t>Adresse URL du portfolio :</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -128,12 +125,6 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>Configuration et installation de GLPI</t>
-  </si>
-  <si>
-    <t>Mise en place d'une veille informationnelle sur l</t>
-  </si>
-  <si>
     <t>Création d'un système d'information pour l'entreprise fictive FigFactor sur une durée de 5 mois.</t>
   </si>
   <si>
@@ -158,30 +149,15 @@
     <t>03/03/2025 - 25/04/2025</t>
   </si>
   <si>
-    <t>PPE zabbix</t>
-  </si>
-  <si>
-    <t>03/02/2025 - 21/03/2025</t>
-  </si>
-  <si>
     <t>01/10/2024 - 05/11/2024</t>
   </si>
   <si>
     <t>08/10/2024 03/12/2024</t>
   </si>
   <si>
-    <t>Mise en place d'une solution de supervision (Zabbix)</t>
-  </si>
-  <si>
     <t>Création de documents technique et profesionnel</t>
   </si>
   <si>
-    <t>PPE WDS-MDT</t>
-  </si>
-  <si>
-    <t>03/09/2024 - 17/09/2024</t>
-  </si>
-  <si>
     <t>04/03/2024 - 17/05/2024</t>
   </si>
   <si>
@@ -192,6 +168,15 @@
   </si>
   <si>
     <t>Centre de formation : Institution des Chartreux</t>
+  </si>
+  <si>
+    <t>Mise en place d'une veille informationnelle sur le sujet : Quelles sont les méthodes de sécurisation d’un serveur de virtualisation ?</t>
+  </si>
+  <si>
+    <t>Mise en place d'une solution de supervision (Zabbix) et intégration de Grafana</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://killex8569.github.io/Mon-Portfolio/index.html</t>
   </si>
 </sst>
 </file>
@@ -201,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -259,11 +244,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -668,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -709,9 +689,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,15 +710,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -774,36 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1113,140 +1087,140 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AQ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.54296875" style="1" customWidth="1"/>
+    <col min="3" max="8" width="18.5546875" style="1" customWidth="1"/>
     <col min="9" max="43" width="11" customWidth="1"/>
-    <col min="44" max="16384" width="10.81640625" style="1"/>
+    <col min="44" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="43"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="30"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+    <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="B6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="H7" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>19</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1284,17 +1258,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1331,23 +1305,21 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="16"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1384,21 +1356,21 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1435,21 +1407,21 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="B11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1486,21 +1458,21 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1537,21 +1509,15 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1588,21 +1554,15 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16" t="s">
-        <v>21</v>
-      </c>
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1639,21 +1599,15 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16" t="s">
-        <v>21</v>
-      </c>
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1690,15 +1644,17 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1735,15 +1691,21 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1780,15 +1742,15 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1825,17 +1787,15 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1872,21 +1832,17 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="16"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1923,21 +1879,25 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="15"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1974,15 +1934,21 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="15"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2019,15 +1985,15 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2064,15 +2030,15 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2109,15 +2075,15 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2154,15 +2120,15 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2199,17 +2165,15 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2246,25 +2210,15 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="16"/>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2301,334 +2255,26 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-      <c r="AB29"/>
-      <c r="AC29"/>
-      <c r="AD29"/>
-      <c r="AE29"/>
-      <c r="AF29"/>
-      <c r="AG29"/>
-      <c r="AH29"/>
-      <c r="AI29"/>
-      <c r="AJ29"/>
-      <c r="AK29"/>
-      <c r="AL29"/>
-      <c r="AM29"/>
-      <c r="AN29"/>
-      <c r="AO29"/>
-      <c r="AP29"/>
-      <c r="AQ29"/>
-    </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AF30"/>
-      <c r="AG30"/>
-      <c r="AH30"/>
-      <c r="AI30"/>
-      <c r="AJ30"/>
-      <c r="AK30"/>
-      <c r="AL30"/>
-      <c r="AM30"/>
-      <c r="AN30"/>
-      <c r="AO30"/>
-      <c r="AP30"/>
-      <c r="AQ30"/>
-    </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
-      <c r="AE31"/>
-      <c r="AF31"/>
-      <c r="AG31"/>
-      <c r="AH31"/>
-      <c r="AI31"/>
-      <c r="AJ31"/>
-      <c r="AK31"/>
-      <c r="AL31"/>
-      <c r="AM31"/>
-      <c r="AN31"/>
-      <c r="AO31"/>
-      <c r="AP31"/>
-      <c r="AQ31"/>
-    </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
-      <c r="AE32"/>
-      <c r="AF32"/>
-      <c r="AG32"/>
-      <c r="AH32"/>
-      <c r="AI32"/>
-      <c r="AJ32"/>
-      <c r="AK32"/>
-      <c r="AL32"/>
-      <c r="AM32"/>
-      <c r="AN32"/>
-      <c r="AO32"/>
-      <c r="AP32"/>
-      <c r="AQ32"/>
-    </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-      <c r="AE33"/>
-      <c r="AF33"/>
-      <c r="AG33"/>
-      <c r="AH33"/>
-      <c r="AI33"/>
-      <c r="AJ33"/>
-      <c r="AK33"/>
-      <c r="AL33"/>
-      <c r="AM33"/>
-      <c r="AN33"/>
-      <c r="AO33"/>
-      <c r="AP33"/>
-      <c r="AQ33"/>
-    </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
-      <c r="AF34"/>
-      <c r="AG34"/>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34"/>
-      <c r="AK34"/>
-      <c r="AL34"/>
-      <c r="AM34"/>
-      <c r="AN34"/>
-      <c r="AO34"/>
-      <c r="AP34"/>
-      <c r="AQ34"/>
-    </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35"/>
-      <c r="AM35"/>
-      <c r="AN35"/>
-      <c r="AO35"/>
-      <c r="AP35"/>
-      <c r="AQ35"/>
-    </row>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2655,27 +2301,20 @@
     <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:H5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2692,6 +2331,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F67FAFFF6622EA46A56A0B9F9D3D6381" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b3a53a3eb87022b0bb5d57aedb29600a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="256d7196-e029-48f3-9020-9ca775305906" xmlns:ns3="df0e35dd-c3e7-462f-87b0-0ac0fa0c6328" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c31759d3de9b648bd59bf6cabffaddef" ns2:_="" ns3:_="">
     <xsd:import namespace="256d7196-e029-48f3-9020-9ca775305906"/>
@@ -2908,15 +2556,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C8E0CF9-4DA9-461A-9D42-7F5EDB84B399}">
   <ds:schemaRefs>
@@ -2927,6 +2566,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B017DC1C-DD72-4F98-898D-9D6E1CB4C1E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF4C2BB-12AC-4142-A3E9-28B6F5ADC264}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2943,12 +2590,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B017DC1C-DD72-4F98-898D-9D6E1CB4C1E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/E5_Tableau_de_synthèse_Alexandre_FA.xlsx
+++ b/data/E5_Tableau_de_synthèse_Alexandre_FA.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afaubladier\Desktop\Alexandre\Mon-Portfolio\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\mon portfolio\Mon-portfolio-2025\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F2DEE9-08D2-47E7-83F9-4C64D5293DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3914E479-BA52-478E-A359-D4B0DF019C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E5'!$A$1:$H$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E5'!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>Adresse URL du portfolio : https://killex8569.github.io/Mon-Portfolio/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dossier de certification </t>
+  </si>
+  <si>
+    <t>TP PCA et PRA (Gouvernance)</t>
+  </si>
+  <si>
+    <t>13/09/2023 - 10/10/2023</t>
+  </si>
+  <si>
+    <t>28/01/2025 - 18/02/2025</t>
   </si>
 </sst>
 </file>
@@ -648,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -713,9 +725,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -740,44 +791,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1087,72 +1102,72 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ74"/>
+  <dimension ref="A1:AQ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="70.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.5546875" style="1" customWidth="1"/>
+    <col min="3" max="8" width="18.54296875" style="1" customWidth="1"/>
     <col min="9" max="43" width="11" customWidth="1"/>
-    <col min="44" max="16384" width="10.77734375" style="1"/>
+    <col min="44" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="29" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="30"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="43"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1163,23 +1178,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1201,9 +1216,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="40"/>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
@@ -1258,17 +1273,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1305,7 +1320,7 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>38</v>
       </c>
@@ -1356,7 +1371,7 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
@@ -1407,7 +1422,7 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -1458,7 +1473,7 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
@@ -1509,15 +1524,21 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>43</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="H13" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1554,10 +1575,16 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="14"/>
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1599,7 +1626,7 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
       <c r="C15" s="14"/>
@@ -1644,17 +1671,17 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1691,7 +1718,7 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>33</v>
       </c>
@@ -1742,15 +1769,17 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1787,14 +1816,24 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="G19" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="H19" s="15"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -1832,17 +1871,21 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="15"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1879,24 +1922,14 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>20</v>
-      </c>
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="G21" s="14"/>
       <c r="H21" s="15"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -1934,20 +1967,14 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>25</v>
-      </c>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="G22" s="14"/>
       <c r="H22" s="15"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -1985,7 +2012,7 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="8"/>
       <c r="C23" s="14"/>
@@ -2030,7 +2057,7 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="8"/>
       <c r="C24" s="14"/>
@@ -2075,15 +2102,15 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2120,15 +2147,15 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2165,96 +2192,8 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
-      <c r="AC27"/>
-      <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
-      <c r="AG27"/>
-      <c r="AH27"/>
-      <c r="AI27"/>
-      <c r="AJ27"/>
-      <c r="AK27"/>
-      <c r="AL27"/>
-      <c r="AM27"/>
-      <c r="AN27"/>
-      <c r="AO27"/>
-      <c r="AP27"/>
-      <c r="AQ27"/>
-    </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
-      <c r="AE28"/>
-      <c r="AF28"/>
-      <c r="AG28"/>
-      <c r="AH28"/>
-      <c r="AI28"/>
-      <c r="AJ28"/>
-      <c r="AK28"/>
-      <c r="AL28"/>
-      <c r="AM28"/>
-      <c r="AN28"/>
-      <c r="AO28"/>
-      <c r="AP28"/>
-      <c r="AQ28"/>
-    </row>
+    <row r="27" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2299,22 +2238,20 @@
     <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:H5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2331,15 +2268,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F67FAFFF6622EA46A56A0B9F9D3D6381" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b3a53a3eb87022b0bb5d57aedb29600a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="256d7196-e029-48f3-9020-9ca775305906" xmlns:ns3="df0e35dd-c3e7-462f-87b0-0ac0fa0c6328" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c31759d3de9b648bd59bf6cabffaddef" ns2:_="" ns3:_="">
     <xsd:import namespace="256d7196-e029-48f3-9020-9ca775305906"/>
@@ -2556,6 +2484,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C8E0CF9-4DA9-461A-9D42-7F5EDB84B399}">
   <ds:schemaRefs>
@@ -2566,14 +2503,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B017DC1C-DD72-4F98-898D-9D6E1CB4C1E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF4C2BB-12AC-4142-A3E9-28B6F5ADC264}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2590,4 +2519,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B017DC1C-DD72-4F98-898D-9D6E1CB4C1E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>